--- a/Code/Results/Cases/Case_4_144/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_144/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.72189780193842</v>
+        <v>20.06401820495559</v>
       </c>
       <c r="C2">
-        <v>5.677736956040263</v>
+        <v>5.220170146773357</v>
       </c>
       <c r="D2">
-        <v>9.657078850490427</v>
+        <v>14.00620387218371</v>
       </c>
       <c r="E2">
-        <v>9.008388744100298</v>
+        <v>14.3227799686162</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>72.56530919757226</v>
+        <v>78.41004658587147</v>
       </c>
       <c r="H2">
-        <v>20.79257715286685</v>
+        <v>26.44857315120652</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.072951846793747</v>
+        <v>8.598654553216933</v>
       </c>
       <c r="K2">
-        <v>10.62496461364491</v>
+        <v>15.56854269033155</v>
       </c>
       <c r="L2">
-        <v>7.67741772840238</v>
+        <v>12.87185682475069</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.05930923679967</v>
+        <v>20.03116411070205</v>
       </c>
       <c r="C3">
-        <v>5.520419936716809</v>
+        <v>5.155764915678615</v>
       </c>
       <c r="D3">
-        <v>9.432725589916673</v>
+        <v>14.00015057389965</v>
       </c>
       <c r="E3">
-        <v>8.935853481070561</v>
+        <v>14.3365572225787</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>70.27980619240478</v>
+        <v>77.85908019617361</v>
       </c>
       <c r="H3">
-        <v>20.397402033528</v>
+        <v>26.3820023714264</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.094413065457926</v>
+        <v>8.606929258942662</v>
       </c>
       <c r="K3">
-        <v>10.17407803323863</v>
+        <v>15.56607233207755</v>
       </c>
       <c r="L3">
-        <v>7.593400279451509</v>
+        <v>12.89227590668433</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.64995639940194</v>
+        <v>20.01673281822343</v>
       </c>
       <c r="C4">
-        <v>5.421337699966566</v>
+        <v>5.11457694044593</v>
       </c>
       <c r="D4">
-        <v>9.298320944745868</v>
+        <v>13.99883127220349</v>
       </c>
       <c r="E4">
-        <v>8.895002189924126</v>
+        <v>14.34671526786602</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>68.87488259995973</v>
+        <v>77.52751221480729</v>
       </c>
       <c r="H4">
-        <v>20.15936895593519</v>
+        <v>26.3435023659408</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.108092499103424</v>
+        <v>8.612309036474347</v>
       </c>
       <c r="K4">
-        <v>9.897398125692414</v>
+        <v>15.56904645954179</v>
       </c>
       <c r="L4">
-        <v>7.54593854626224</v>
+        <v>12.90681417990492</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.48274638565774</v>
+        <v>20.01230129764294</v>
       </c>
       <c r="C5">
-        <v>5.380323724418686</v>
+        <v>5.097381607753773</v>
       </c>
       <c r="D5">
-        <v>9.244428040974048</v>
+        <v>13.99889757932483</v>
       </c>
       <c r="E5">
-        <v>8.879265476225006</v>
+        <v>14.35128220071737</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>68.30239684716396</v>
+        <v>77.39416466880235</v>
       </c>
       <c r="H5">
-        <v>20.06354349920828</v>
+        <v>26.32841519691191</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.113795950225405</v>
+        <v>8.614576778870518</v>
       </c>
       <c r="K5">
-        <v>9.784855819098814</v>
+        <v>15.57138883432355</v>
       </c>
       <c r="L5">
-        <v>7.527621840522849</v>
+        <v>12.9132418460286</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.45496502676068</v>
+        <v>20.01165312204031</v>
       </c>
       <c r="C6">
-        <v>5.373474625543921</v>
+        <v>5.094501585958774</v>
       </c>
       <c r="D6">
-        <v>9.23553325583058</v>
+        <v>13.99894509154002</v>
       </c>
       <c r="E6">
-        <v>8.876706917506928</v>
+        <v>14.35206636038472</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>68.20735166220257</v>
+        <v>77.37213145370596</v>
       </c>
       <c r="H6">
-        <v>20.04770323178691</v>
+        <v>26.32594646696812</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.114750869618844</v>
+        <v>8.614957899021816</v>
       </c>
       <c r="K6">
-        <v>9.766185967661766</v>
+        <v>15.57184607359074</v>
       </c>
       <c r="L6">
-        <v>7.524641832162684</v>
+        <v>12.91433954793864</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.64770260799062</v>
+        <v>20.01666717843288</v>
       </c>
       <c r="C7">
-        <v>5.420787163896304</v>
+        <v>5.114346698841618</v>
       </c>
       <c r="D7">
-        <v>9.29759052308119</v>
+        <v>13.9988297199271</v>
       </c>
       <c r="E7">
-        <v>8.894786294168556</v>
+        <v>14.34677512806838</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>68.86716111390612</v>
+        <v>77.52570658062878</v>
       </c>
       <c r="H7">
-        <v>20.15807183988107</v>
+        <v>26.34329645220723</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.108168892174656</v>
+        <v>8.612339314278721</v>
       </c>
       <c r="K7">
-        <v>9.89587926978853</v>
+        <v>15.56907347187017</v>
       </c>
       <c r="L7">
-        <v>7.545687391185078</v>
+        <v>12.90689882817879</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.49409289545178</v>
+        <v>20.05150233275299</v>
       </c>
       <c r="C8">
-        <v>5.62400290203765</v>
+        <v>5.198305495175726</v>
       </c>
       <c r="D8">
-        <v>9.579047950043051</v>
+        <v>14.0036198292558</v>
       </c>
       <c r="E8">
-        <v>8.982603893560992</v>
+        <v>14.32717797062871</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>71.77785021154575</v>
+        <v>78.21872445527886</v>
       </c>
       <c r="H8">
-        <v>20.65537413541578</v>
+        <v>26.4251296443253</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.080249125743427</v>
+        <v>8.601445740020786</v>
       </c>
       <c r="K8">
-        <v>10.46955710370299</v>
+        <v>15.56675972051093</v>
       </c>
       <c r="L8">
-        <v>7.647584724932711</v>
+        <v>12.87848209865486</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.12521639583255</v>
+        <v>20.165056569129</v>
       </c>
       <c r="C9">
-        <v>6.003442409728707</v>
+        <v>5.349824469855842</v>
       </c>
       <c r="D9">
-        <v>10.15608669222452</v>
+        <v>14.03197865076289</v>
       </c>
       <c r="E9">
-        <v>9.184793655125311</v>
+        <v>14.3022137976806</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>77.45662944828152</v>
+        <v>79.62757849863993</v>
       </c>
       <c r="H9">
-        <v>21.66659366250952</v>
+        <v>26.60422416111963</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.029352378757329</v>
+        <v>8.582445887980725</v>
       </c>
       <c r="K9">
-        <v>11.58973710286567</v>
+        <v>15.59777270133279</v>
       </c>
       <c r="L9">
-        <v>7.880699628378372</v>
+        <v>12.8386288393905</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.29725858030047</v>
+        <v>20.27555782582798</v>
       </c>
       <c r="C10">
-        <v>6.271823593181914</v>
+        <v>5.453040103052696</v>
       </c>
       <c r="D10">
-        <v>10.59365424351151</v>
+        <v>14.06428424694069</v>
       </c>
       <c r="E10">
-        <v>9.352673702365164</v>
+        <v>14.2920630414093</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>81.59446484311546</v>
+        <v>80.68815447872998</v>
       </c>
       <c r="H10">
-        <v>22.43124337938654</v>
+        <v>26.74683850189701</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.994111669009035</v>
+        <v>8.569912170212465</v>
       </c>
       <c r="K10">
-        <v>12.61313915204398</v>
+        <v>15.64206773308062</v>
       </c>
       <c r="L10">
-        <v>8.073059161446993</v>
+        <v>12.81901692230326</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.82361555715084</v>
+        <v>20.33156922755872</v>
       </c>
       <c r="C11">
-        <v>6.392016404935781</v>
+        <v>5.498216211413239</v>
       </c>
       <c r="D11">
-        <v>10.79542527227479</v>
+        <v>14.08144613510168</v>
       </c>
       <c r="E11">
-        <v>9.433490746096536</v>
+        <v>14.2892186443491</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>83.46749506427302</v>
+        <v>81.17508344814594</v>
       </c>
       <c r="H11">
-        <v>22.78393018732771</v>
+        <v>26.81403703292802</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.978499533069534</v>
+        <v>8.564516661351545</v>
       </c>
       <c r="K11">
-        <v>13.10847828484033</v>
+        <v>15.66683726829885</v>
       </c>
       <c r="L11">
-        <v>8.165335306427322</v>
+        <v>12.81219138770457</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.02190932613125</v>
+        <v>20.35359155346084</v>
       </c>
       <c r="C12">
-        <v>6.437293814561189</v>
+        <v>5.515066085423737</v>
       </c>
       <c r="D12">
-        <v>10.87221028480882</v>
+        <v>14.08829678616504</v>
       </c>
       <c r="E12">
-        <v>9.464755730055705</v>
+        <v>14.28839597737107</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>84.17537897065385</v>
+        <v>81.36001825187272</v>
       </c>
       <c r="H12">
-        <v>22.91820239868436</v>
+        <v>26.83981002304914</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.97264353524619</v>
+        <v>8.562517305410514</v>
       </c>
       <c r="K12">
-        <v>13.29315034251686</v>
+        <v>15.6768753452159</v>
       </c>
       <c r="L12">
-        <v>8.200981300711305</v>
+        <v>12.8099077456417</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.97924921159518</v>
+        <v>20.34881277198336</v>
       </c>
       <c r="C13">
-        <v>6.427552424229443</v>
+        <v>5.511448635668019</v>
       </c>
       <c r="D13">
-        <v>10.85565651605014</v>
+        <v>14.08680577618294</v>
       </c>
       <c r="E13">
-        <v>9.457992470810501</v>
+        <v>14.28856184629074</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>84.02298527659501</v>
+        <v>81.32016653499645</v>
       </c>
       <c r="H13">
-        <v>22.88925209278586</v>
+        <v>26.83424495887519</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.973902311919211</v>
+        <v>8.562945957628978</v>
       </c>
       <c r="K13">
-        <v>13.25350503259375</v>
+        <v>15.67468428623069</v>
       </c>
       <c r="L13">
-        <v>8.193272729614215</v>
+        <v>12.81038618666692</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.83995000952519</v>
+        <v>20.33336482774849</v>
       </c>
       <c r="C14">
-        <v>6.395745929447749</v>
+        <v>5.499607627841112</v>
       </c>
       <c r="D14">
-        <v>10.80173487052186</v>
+        <v>14.08200270834068</v>
       </c>
       <c r="E14">
-        <v>9.436049547845791</v>
+        <v>14.28914586694148</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>83.52576097471848</v>
+        <v>81.19028777576499</v>
       </c>
       <c r="H14">
-        <v>22.79496229814736</v>
+        <v>26.81615089656998</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.978016660638319</v>
+        <v>8.564351296430001</v>
       </c>
       <c r="K14">
-        <v>13.12372883076113</v>
+        <v>15.66764994847707</v>
       </c>
       <c r="L14">
-        <v>8.16825372676924</v>
+        <v>12.81199748019094</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.75449081961061</v>
+        <v>20.32400782994848</v>
       </c>
       <c r="C15">
-        <v>6.376233825867131</v>
+        <v>5.492321105128525</v>
       </c>
       <c r="D15">
-        <v>10.76875540960484</v>
+        <v>14.07910641991502</v>
       </c>
       <c r="E15">
-        <v>9.422695685054423</v>
+        <v>14.28953671538375</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>83.22101543306349</v>
+        <v>81.1108014082708</v>
       </c>
       <c r="H15">
-        <v>22.73730134756545</v>
+        <v>26.80511003030612</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.980543974359908</v>
+        <v>8.565217805474038</v>
       </c>
       <c r="K15">
-        <v>13.04386281910604</v>
+        <v>15.66342676648418</v>
       </c>
       <c r="L15">
-        <v>8.153020971434117</v>
+        <v>12.8130236360468</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.26271802827603</v>
+        <v>20.27201176804506</v>
       </c>
       <c r="C16">
-        <v>6.263933476279394</v>
+        <v>5.450051821284494</v>
       </c>
       <c r="D16">
-        <v>10.58052149957795</v>
+        <v>14.06321206696778</v>
       </c>
       <c r="E16">
-        <v>9.347483422902874</v>
+        <v>14.29228456636467</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>81.47186400276746</v>
+        <v>80.65641415571928</v>
       </c>
       <c r="H16">
-        <v>22.40829341867211</v>
+        <v>26.74249301392633</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.995140034207147</v>
+        <v>8.570270921209634</v>
       </c>
       <c r="K16">
-        <v>12.58035495990804</v>
+        <v>15.64054145780497</v>
       </c>
       <c r="L16">
-        <v>8.067126089709451</v>
+        <v>12.81950513493067</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.95924205065375</v>
+        <v>20.24157549976389</v>
       </c>
       <c r="C17">
-        <v>6.194578882033346</v>
+        <v>5.423664494065156</v>
       </c>
       <c r="D17">
-        <v>10.46573110185976</v>
+        <v>14.05409109379291</v>
       </c>
       <c r="E17">
-        <v>9.302497044802188</v>
+        <v>14.29442408447544</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>80.39636690833841</v>
+        <v>80.37873790050854</v>
       </c>
       <c r="H17">
-        <v>22.20770908321895</v>
+        <v>26.70466907641151</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.004198648499278</v>
+        <v>8.573449099719047</v>
       </c>
       <c r="K17">
-        <v>12.29071260321225</v>
+        <v>15.62768130586409</v>
       </c>
       <c r="L17">
-        <v>8.015665547524526</v>
+        <v>12.82401793132755</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.7840501078498</v>
+        <v>20.22461091722558</v>
       </c>
       <c r="C18">
-        <v>6.154507107082447</v>
+        <v>5.408320020782754</v>
       </c>
       <c r="D18">
-        <v>10.39996290336818</v>
+        <v>14.04907723993496</v>
       </c>
       <c r="E18">
-        <v>9.277039275438186</v>
+        <v>14.29582162041773</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>79.77689247248472</v>
+        <v>80.21945227797187</v>
       </c>
       <c r="H18">
-        <v>22.09279222208675</v>
+        <v>26.68313283990165</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.009448644102713</v>
+        <v>8.575305932358553</v>
       </c>
       <c r="K18">
-        <v>12.12213574142845</v>
+        <v>15.62071970236539</v>
       </c>
       <c r="L18">
-        <v>7.986514708696382</v>
+        <v>12.82681088714782</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.72462512738013</v>
+        <v>20.21896041669308</v>
       </c>
       <c r="C19">
-        <v>6.140907445724732</v>
+        <v>5.403095988715543</v>
       </c>
       <c r="D19">
-        <v>10.37773944097437</v>
+        <v>14.0474196106845</v>
       </c>
       <c r="E19">
-        <v>9.268490741350581</v>
+        <v>14.29632348999607</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>79.56700169738968</v>
+        <v>80.16559707750048</v>
       </c>
       <c r="H19">
-        <v>22.05396088971462</v>
+        <v>26.67587889476211</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.011233148406212</v>
+        <v>8.575939581919949</v>
       </c>
       <c r="K19">
-        <v>12.06471474592705</v>
+        <v>15.61843753733623</v>
       </c>
       <c r="L19">
-        <v>7.976721189052904</v>
+        <v>12.82779043283091</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.99161433964989</v>
+        <v>20.244759540638</v>
       </c>
       <c r="C20">
-        <v>6.201980275544368</v>
+        <v>5.426490785890666</v>
       </c>
       <c r="D20">
-        <v>10.47792433688235</v>
+        <v>14.05503801515044</v>
       </c>
       <c r="E20">
-        <v>9.307242592123554</v>
+        <v>14.29417905504244</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>80.51094687749952</v>
+        <v>80.40825357910506</v>
       </c>
       <c r="H20">
-        <v>22.2290145377847</v>
+        <v>26.70867287796816</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.003230262386213</v>
+        <v>8.573107795138837</v>
       </c>
       <c r="K20">
-        <v>12.32174988514402</v>
+        <v>15.62900528789575</v>
       </c>
       <c r="L20">
-        <v>8.021097139402949</v>
+        <v>12.82351711756014</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.88089360430403</v>
+        <v>20.33788034271248</v>
       </c>
       <c r="C21">
-        <v>6.405094386867689</v>
+        <v>5.50309261646827</v>
       </c>
       <c r="D21">
-        <v>10.81756274092356</v>
+        <v>14.08340396122471</v>
       </c>
       <c r="E21">
-        <v>9.442476582479648</v>
+        <v>14.28896742502625</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>83.67184555138024</v>
+        <v>81.22842229368382</v>
       </c>
       <c r="H21">
-        <v>22.82263779381015</v>
+        <v>26.82145676652836</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.976806693524711</v>
+        <v>8.563937327190835</v>
       </c>
       <c r="K21">
-        <v>13.16192503814126</v>
+        <v>15.66969828649539</v>
       </c>
       <c r="L21">
-        <v>8.175583185025255</v>
+        <v>12.81151603740191</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.45611173935567</v>
+        <v>20.40346591368161</v>
       </c>
       <c r="C22">
-        <v>6.536480759639616</v>
+        <v>5.551655646896477</v>
       </c>
       <c r="D22">
-        <v>11.04174437574854</v>
+        <v>14.10399190301804</v>
       </c>
       <c r="E22">
-        <v>9.534726510425381</v>
+        <v>14.2870441225659</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85.72960589654465</v>
+        <v>81.76758305803197</v>
       </c>
       <c r="H22">
-        <v>23.21480614364797</v>
+        <v>26.89706604597581</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.959861367902444</v>
+        <v>8.558199132649857</v>
       </c>
       <c r="K22">
-        <v>13.69417405500321</v>
+        <v>15.70012780600769</v>
       </c>
       <c r="L22">
-        <v>8.280656621116217</v>
+        <v>12.80542710184925</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.14965991058096</v>
+        <v>20.36803418429486</v>
       </c>
       <c r="C23">
-        <v>6.466468508272601</v>
+        <v>5.525874510859159</v>
       </c>
       <c r="D23">
-        <v>10.92189404516961</v>
+        <v>14.09281722818304</v>
       </c>
       <c r="E23">
-        <v>9.485129321600771</v>
+        <v>14.28793514551193</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>84.63207200858238</v>
+        <v>81.47956847530777</v>
       </c>
       <c r="H23">
-        <v>23.00510357535596</v>
+        <v>26.8565408588749</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.96887728206443</v>
+        <v>8.561238432127128</v>
       </c>
       <c r="K23">
-        <v>13.41160390037595</v>
+        <v>15.68353832083286</v>
       </c>
       <c r="L23">
-        <v>8.224194676851946</v>
+        <v>12.80851648922995</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.97698106506735</v>
+        <v>20.2433183725134</v>
       </c>
       <c r="C24">
-        <v>6.198634727655539</v>
+        <v>5.425213561367409</v>
       </c>
       <c r="D24">
-        <v>10.47241106929952</v>
+        <v>14.05460919565743</v>
       </c>
       <c r="E24">
-        <v>9.305095868752753</v>
+        <v>14.29428931108119</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>80.45914887121532</v>
+        <v>80.39490843023721</v>
       </c>
       <c r="H24">
-        <v>22.21938109181892</v>
+        <v>26.70686210686488</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.003667938367331</v>
+        <v>8.5732620065505</v>
       </c>
       <c r="K24">
-        <v>12.30772434751843</v>
+        <v>15.62840536995877</v>
       </c>
       <c r="L24">
-        <v>8.01864016454725</v>
+        <v>12.82374291717305</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.688078464865</v>
+        <v>20.1295405110613</v>
       </c>
       <c r="C25">
-        <v>5.90272325099121</v>
+        <v>5.310250877295521</v>
       </c>
       <c r="D25">
-        <v>9.997485458774639</v>
+        <v>14.02228471423104</v>
       </c>
       <c r="E25">
-        <v>9.126779709809185</v>
+        <v>14.30752735731267</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>75.92547226171457</v>
+        <v>79.24160517044552</v>
       </c>
       <c r="H25">
-        <v>21.38922602737827</v>
+        <v>26.55381196723566</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.042728074691382</v>
+        <v>8.587334465791692</v>
       </c>
       <c r="K25">
-        <v>11.28797037708554</v>
+        <v>15.58559041169683</v>
       </c>
       <c r="L25">
-        <v>7.813990675498379</v>
+        <v>12.84771151602902</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_144/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_144/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.06401820495559</v>
+        <v>14.72189780193834</v>
       </c>
       <c r="C2">
-        <v>5.220170146773357</v>
+        <v>5.677736956040001</v>
       </c>
       <c r="D2">
-        <v>14.00620387218371</v>
+        <v>9.657078850490402</v>
       </c>
       <c r="E2">
-        <v>14.3227799686162</v>
+        <v>9.008388744100305</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>78.41004658587147</v>
+        <v>72.56530919757226</v>
       </c>
       <c r="H2">
-        <v>26.44857315120652</v>
+        <v>20.79257715286688</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.598654553216933</v>
+        <v>5.072951846793713</v>
       </c>
       <c r="K2">
-        <v>15.56854269033155</v>
+        <v>10.62496461364493</v>
       </c>
       <c r="L2">
-        <v>12.87185682475069</v>
+        <v>7.677417728402454</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.03116411070205</v>
+        <v>14.05930923679965</v>
       </c>
       <c r="C3">
-        <v>5.155764915678615</v>
+        <v>5.520419936716669</v>
       </c>
       <c r="D3">
-        <v>14.00015057389965</v>
+        <v>9.43272558991689</v>
       </c>
       <c r="E3">
-        <v>14.3365572225787</v>
+        <v>8.935853481070549</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>77.85908019617361</v>
+        <v>70.27980619240469</v>
       </c>
       <c r="H3">
-        <v>26.3820023714264</v>
+        <v>20.3974020335279</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.606929258942662</v>
+        <v>5.09441306545776</v>
       </c>
       <c r="K3">
-        <v>15.56607233207755</v>
+        <v>10.17407803323861</v>
       </c>
       <c r="L3">
-        <v>12.89227590668433</v>
+        <v>7.593400279451547</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.01673281822343</v>
+        <v>13.64995639940204</v>
       </c>
       <c r="C4">
-        <v>5.11457694044593</v>
+        <v>5.421337699966448</v>
       </c>
       <c r="D4">
-        <v>13.99883127220349</v>
+        <v>9.298320944745862</v>
       </c>
       <c r="E4">
-        <v>14.34671526786602</v>
+        <v>8.895002189924121</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>77.52751221480729</v>
+        <v>68.8748825999603</v>
       </c>
       <c r="H4">
-        <v>26.3435023659408</v>
+        <v>20.1593689559354</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.612309036474347</v>
+        <v>5.10809249910336</v>
       </c>
       <c r="K4">
-        <v>15.56904645954179</v>
+        <v>9.89739812569252</v>
       </c>
       <c r="L4">
-        <v>12.90681417990492</v>
+        <v>7.545938546262297</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.01230129764294</v>
+        <v>13.48274638565763</v>
       </c>
       <c r="C5">
-        <v>5.097381607753773</v>
+        <v>5.38032372441843</v>
       </c>
       <c r="D5">
-        <v>13.99889757932483</v>
+        <v>9.244428040973974</v>
       </c>
       <c r="E5">
-        <v>14.35128220071737</v>
+        <v>8.8792654762251</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>77.39416466880235</v>
+        <v>68.30239684716328</v>
       </c>
       <c r="H5">
-        <v>26.32841519691191</v>
+        <v>20.06354349920824</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.614576778870518</v>
+        <v>5.113795950225598</v>
       </c>
       <c r="K5">
-        <v>15.57138883432355</v>
+        <v>9.784855819098764</v>
       </c>
       <c r="L5">
-        <v>12.9132418460286</v>
+        <v>7.527621840523016</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.01165312204031</v>
+        <v>13.45496502676076</v>
       </c>
       <c r="C6">
-        <v>5.094501585958774</v>
+        <v>5.373474625543927</v>
       </c>
       <c r="D6">
-        <v>13.99894509154002</v>
+        <v>9.235533255830662</v>
       </c>
       <c r="E6">
-        <v>14.35206636038472</v>
+        <v>8.876706917506812</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>77.37213145370596</v>
+        <v>68.20735166220294</v>
       </c>
       <c r="H6">
-        <v>26.32594646696812</v>
+        <v>20.047703231787</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.614957899021816</v>
+        <v>5.11475086961874</v>
       </c>
       <c r="K6">
-        <v>15.57184607359074</v>
+        <v>9.766185967661855</v>
       </c>
       <c r="L6">
-        <v>12.91433954793864</v>
+        <v>7.524641832162657</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.01666717843288</v>
+        <v>13.64770260799063</v>
       </c>
       <c r="C7">
-        <v>5.114346698841618</v>
+        <v>5.420787163896428</v>
       </c>
       <c r="D7">
-        <v>13.9988297199271</v>
+        <v>9.297590523081341</v>
       </c>
       <c r="E7">
-        <v>14.34677512806838</v>
+        <v>8.894786294168734</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>77.52570658062878</v>
+        <v>68.86716111390636</v>
       </c>
       <c r="H7">
-        <v>26.34329645220723</v>
+        <v>20.15807183988111</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.612339314278721</v>
+        <v>5.108168892174722</v>
       </c>
       <c r="K7">
-        <v>15.56907347187017</v>
+        <v>9.895879269788484</v>
       </c>
       <c r="L7">
-        <v>12.90689882817879</v>
+        <v>7.545687391185125</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.05150233275299</v>
+        <v>14.49409289545175</v>
       </c>
       <c r="C8">
-        <v>5.198305495175726</v>
+        <v>5.624002902037633</v>
       </c>
       <c r="D8">
-        <v>14.0036198292558</v>
+        <v>9.579047950043007</v>
       </c>
       <c r="E8">
-        <v>14.32717797062871</v>
+        <v>8.982603893560903</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>78.21872445527886</v>
+        <v>71.77785021154561</v>
       </c>
       <c r="H8">
-        <v>26.4251296443253</v>
+        <v>20.6553741354158</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.601445740020786</v>
+        <v>5.080249125743366</v>
       </c>
       <c r="K8">
-        <v>15.56675972051093</v>
+        <v>10.469557103703</v>
       </c>
       <c r="L8">
-        <v>12.87848209865486</v>
+        <v>7.647584724932662</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.165056569129</v>
+        <v>16.12521639583246</v>
       </c>
       <c r="C9">
-        <v>5.349824469855842</v>
+        <v>6.003442409728827</v>
       </c>
       <c r="D9">
-        <v>14.03197865076289</v>
+        <v>10.15608669222455</v>
       </c>
       <c r="E9">
-        <v>14.3022137976806</v>
+        <v>9.184793655125329</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>79.62757849863993</v>
+        <v>77.45662944828175</v>
       </c>
       <c r="H9">
-        <v>26.60422416111963</v>
+        <v>21.66659366250949</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.582445887980725</v>
+        <v>5.029352378757332</v>
       </c>
       <c r="K9">
-        <v>15.59777270133279</v>
+        <v>11.5897371028656</v>
       </c>
       <c r="L9">
-        <v>12.8386288393905</v>
+        <v>7.880699628378348</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.27555782582798</v>
+        <v>17.29725858030051</v>
       </c>
       <c r="C10">
-        <v>5.453040103052696</v>
+        <v>6.271823593181794</v>
       </c>
       <c r="D10">
-        <v>14.06428424694069</v>
+        <v>10.59365424351165</v>
       </c>
       <c r="E10">
-        <v>14.2920630414093</v>
+        <v>9.352673702365131</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>80.68815447872998</v>
+        <v>81.59446484311566</v>
       </c>
       <c r="H10">
-        <v>26.74683850189701</v>
+        <v>22.43124337938664</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.569912170212465</v>
+        <v>4.994111669008911</v>
       </c>
       <c r="K10">
-        <v>15.64206773308062</v>
+        <v>12.61313915204386</v>
       </c>
       <c r="L10">
-        <v>12.81901692230326</v>
+        <v>8.073059161447011</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.33156922755872</v>
+        <v>17.82361555715084</v>
       </c>
       <c r="C11">
-        <v>5.498216211413239</v>
+        <v>6.392016404935648</v>
       </c>
       <c r="D11">
-        <v>14.08144613510168</v>
+        <v>10.79542527227476</v>
       </c>
       <c r="E11">
-        <v>14.2892186443491</v>
+        <v>9.433490746096515</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>81.17508344814594</v>
+        <v>83.46749506427277</v>
       </c>
       <c r="H11">
-        <v>26.81403703292802</v>
+        <v>22.78393018732769</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.564516661351545</v>
+        <v>4.978499533069508</v>
       </c>
       <c r="K11">
-        <v>15.66683726829885</v>
+        <v>13.10847828484024</v>
       </c>
       <c r="L11">
-        <v>12.81219138770457</v>
+        <v>8.165335306427322</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.35359155346084</v>
+        <v>18.02190932613125</v>
       </c>
       <c r="C12">
-        <v>5.515066085423737</v>
+        <v>6.437293814561581</v>
       </c>
       <c r="D12">
-        <v>14.08829678616504</v>
+        <v>10.87221028480881</v>
       </c>
       <c r="E12">
-        <v>14.28839597737107</v>
+        <v>9.464755730055659</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>81.36001825187272</v>
+        <v>84.17537897065399</v>
       </c>
       <c r="H12">
-        <v>26.83981002304914</v>
+        <v>22.91820239868441</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.562517305410514</v>
+        <v>4.972643535246195</v>
       </c>
       <c r="K12">
-        <v>15.6768753452159</v>
+        <v>13.29315034251686</v>
       </c>
       <c r="L12">
-        <v>12.8099077456417</v>
+        <v>8.200981300711293</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.34881277198336</v>
+        <v>17.97924921159516</v>
       </c>
       <c r="C13">
-        <v>5.511448635668019</v>
+        <v>6.427552424229427</v>
       </c>
       <c r="D13">
-        <v>14.08680577618294</v>
+        <v>10.85565651605015</v>
       </c>
       <c r="E13">
-        <v>14.28856184629074</v>
+        <v>9.457992470810487</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>81.32016653499645</v>
+        <v>84.02298527659504</v>
       </c>
       <c r="H13">
-        <v>26.83424495887519</v>
+        <v>22.88925209278576</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.562945957628978</v>
+        <v>4.973902311919179</v>
       </c>
       <c r="K13">
-        <v>15.67468428623069</v>
+        <v>13.25350503259386</v>
       </c>
       <c r="L13">
-        <v>12.81038618666692</v>
+        <v>8.193272729614208</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.33336482774849</v>
+        <v>17.83995000952519</v>
       </c>
       <c r="C14">
-        <v>5.499607627841112</v>
+        <v>6.395745929447886</v>
       </c>
       <c r="D14">
-        <v>14.08200270834068</v>
+        <v>10.8017348705219</v>
       </c>
       <c r="E14">
-        <v>14.28914586694148</v>
+        <v>9.436049547845956</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>81.19028777576499</v>
+        <v>83.52576097471824</v>
       </c>
       <c r="H14">
-        <v>26.81615089656998</v>
+        <v>22.79496229814736</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.564351296430001</v>
+        <v>4.978016660638414</v>
       </c>
       <c r="K14">
-        <v>15.66764994847707</v>
+        <v>13.1237288307611</v>
       </c>
       <c r="L14">
-        <v>12.81199748019094</v>
+        <v>8.168253726769265</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.32400782994848</v>
+        <v>17.75449081961066</v>
       </c>
       <c r="C15">
-        <v>5.492321105128525</v>
+        <v>6.376233825867514</v>
       </c>
       <c r="D15">
-        <v>14.07910641991502</v>
+        <v>10.76875540960499</v>
       </c>
       <c r="E15">
-        <v>14.28953671538375</v>
+        <v>9.422695685054491</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.1108014082708</v>
+        <v>83.2210154330633</v>
       </c>
       <c r="H15">
-        <v>26.80511003030612</v>
+        <v>22.73730134756547</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.565217805474038</v>
+        <v>4.980543974359907</v>
       </c>
       <c r="K15">
-        <v>15.66342676648418</v>
+        <v>13.04386281910608</v>
       </c>
       <c r="L15">
-        <v>12.8130236360468</v>
+        <v>8.153020971434087</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.27201176804506</v>
+        <v>17.26271802827607</v>
       </c>
       <c r="C16">
-        <v>5.450051821284494</v>
+        <v>6.263933476279275</v>
       </c>
       <c r="D16">
-        <v>14.06321206696778</v>
+        <v>10.58052149957789</v>
       </c>
       <c r="E16">
-        <v>14.29228456636467</v>
+        <v>9.347483422902867</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>80.65641415571928</v>
+        <v>81.47186400276735</v>
       </c>
       <c r="H16">
-        <v>26.74249301392633</v>
+        <v>22.40829341867212</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.570270921209634</v>
+        <v>4.995140034207177</v>
       </c>
       <c r="K16">
-        <v>15.64054145780497</v>
+        <v>12.58035495990798</v>
       </c>
       <c r="L16">
-        <v>12.81950513493067</v>
+        <v>8.067126089709507</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.24157549976389</v>
+        <v>16.95924205065372</v>
       </c>
       <c r="C17">
-        <v>5.423664494065156</v>
+        <v>6.19457888203335</v>
       </c>
       <c r="D17">
-        <v>14.05409109379291</v>
+        <v>10.46573110185988</v>
       </c>
       <c r="E17">
-        <v>14.29442408447544</v>
+        <v>9.302497044802163</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>80.37873790050854</v>
+        <v>80.39636690833825</v>
       </c>
       <c r="H17">
-        <v>26.70466907641151</v>
+        <v>22.20770908321889</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.573449099719047</v>
+        <v>5.004198648499285</v>
       </c>
       <c r="K17">
-        <v>15.62768130586409</v>
+        <v>12.29071260321231</v>
       </c>
       <c r="L17">
-        <v>12.82401793132755</v>
+        <v>8.015665547524565</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.22461091722558</v>
+        <v>16.78405010784978</v>
       </c>
       <c r="C18">
-        <v>5.408320020782754</v>
+        <v>6.15450710708233</v>
       </c>
       <c r="D18">
-        <v>14.04907723993496</v>
+        <v>10.39996290336815</v>
       </c>
       <c r="E18">
-        <v>14.29582162041773</v>
+        <v>9.277039275438129</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>80.21945227797187</v>
+        <v>79.77689247248436</v>
       </c>
       <c r="H18">
-        <v>26.68313283990165</v>
+        <v>22.0927922220867</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.575305932358553</v>
+        <v>5.009448644102684</v>
       </c>
       <c r="K18">
-        <v>15.62071970236539</v>
+        <v>12.12213574142847</v>
       </c>
       <c r="L18">
-        <v>12.82681088714782</v>
+        <v>7.986514708696382</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.21896041669308</v>
+        <v>16.72462512738011</v>
       </c>
       <c r="C19">
-        <v>5.403095988715543</v>
+        <v>6.140907445724597</v>
       </c>
       <c r="D19">
-        <v>14.0474196106845</v>
+        <v>10.37773944097438</v>
       </c>
       <c r="E19">
-        <v>14.29632348999607</v>
+        <v>9.268490741350547</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>80.16559707750048</v>
+        <v>79.56700169738976</v>
       </c>
       <c r="H19">
-        <v>26.67587889476211</v>
+        <v>22.05396088971455</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.575939581919949</v>
+        <v>5.011233148406214</v>
       </c>
       <c r="K19">
-        <v>15.61843753733623</v>
+        <v>12.06471474592714</v>
       </c>
       <c r="L19">
-        <v>12.82779043283091</v>
+        <v>7.976721189052963</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.244759540638</v>
+        <v>16.99161433964991</v>
       </c>
       <c r="C20">
-        <v>5.426490785890666</v>
+        <v>6.201980275544515</v>
       </c>
       <c r="D20">
-        <v>14.05503801515044</v>
+        <v>10.47792433688235</v>
       </c>
       <c r="E20">
-        <v>14.29417905504244</v>
+        <v>9.307242592123577</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>80.40825357910506</v>
+        <v>80.51094687749935</v>
       </c>
       <c r="H20">
-        <v>26.70867287796816</v>
+        <v>22.22901453778464</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.573107795138837</v>
+        <v>5.003230262386213</v>
       </c>
       <c r="K20">
-        <v>15.62900528789575</v>
+        <v>12.32174988514394</v>
       </c>
       <c r="L20">
-        <v>12.82351711756014</v>
+        <v>8.021097139402954</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.33788034271248</v>
+        <v>17.88089360430403</v>
       </c>
       <c r="C21">
-        <v>5.50309261646827</v>
+        <v>6.405094386867817</v>
       </c>
       <c r="D21">
-        <v>14.08340396122471</v>
+        <v>10.81756274092352</v>
       </c>
       <c r="E21">
-        <v>14.28896742502625</v>
+        <v>9.442476582479696</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>81.22842229368382</v>
+        <v>83.67184555138007</v>
       </c>
       <c r="H21">
-        <v>26.82145676652836</v>
+        <v>22.82263779381011</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.563937327190835</v>
+        <v>4.976806693524714</v>
       </c>
       <c r="K21">
-        <v>15.66969828649539</v>
+        <v>13.16192503814123</v>
       </c>
       <c r="L21">
-        <v>12.81151603740191</v>
+        <v>8.175583185025227</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.40346591368161</v>
+        <v>18.45611173935565</v>
       </c>
       <c r="C22">
-        <v>5.551655646896477</v>
+        <v>6.536480759639741</v>
       </c>
       <c r="D22">
-        <v>14.10399190301804</v>
+        <v>11.04174437574849</v>
       </c>
       <c r="E22">
-        <v>14.2870441225659</v>
+        <v>9.534726510425253</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>81.76758305803197</v>
+        <v>85.7296058965448</v>
       </c>
       <c r="H22">
-        <v>26.89706604597581</v>
+        <v>23.214806143648</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.558199132649857</v>
+        <v>4.959861367902444</v>
       </c>
       <c r="K22">
-        <v>15.70012780600769</v>
+        <v>13.6941740550032</v>
       </c>
       <c r="L22">
-        <v>12.80542710184925</v>
+        <v>8.280656621116183</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.36803418429486</v>
+        <v>18.14965991058096</v>
       </c>
       <c r="C23">
-        <v>5.525874510859159</v>
+        <v>6.466468508272619</v>
       </c>
       <c r="D23">
-        <v>14.09281722818304</v>
+        <v>10.92189404516963</v>
       </c>
       <c r="E23">
-        <v>14.28793514551193</v>
+        <v>9.485129321600743</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>81.47956847530777</v>
+        <v>84.6320720085823</v>
       </c>
       <c r="H23">
-        <v>26.8565408588749</v>
+        <v>23.00510357535595</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.561238432127128</v>
+        <v>4.968877282064391</v>
       </c>
       <c r="K23">
-        <v>15.68353832083286</v>
+        <v>13.41160390037593</v>
       </c>
       <c r="L23">
-        <v>12.80851648922995</v>
+        <v>8.224194676851978</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.2433183725134</v>
+        <v>16.97698106506735</v>
       </c>
       <c r="C24">
-        <v>5.425213561367409</v>
+        <v>6.198634727655661</v>
       </c>
       <c r="D24">
-        <v>14.05460919565743</v>
+        <v>10.4724110692995</v>
       </c>
       <c r="E24">
-        <v>14.29428931108119</v>
+        <v>9.305095868752659</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>80.39490843023721</v>
+        <v>80.45914887121516</v>
       </c>
       <c r="H24">
-        <v>26.70686210686488</v>
+        <v>22.21938109181887</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.5732620065505</v>
+        <v>5.003667938367331</v>
       </c>
       <c r="K24">
-        <v>15.62840536995877</v>
+        <v>12.30772434751844</v>
       </c>
       <c r="L24">
-        <v>12.82374291717305</v>
+        <v>8.018640164547175</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.1295405110613</v>
+        <v>15.68807846486497</v>
       </c>
       <c r="C25">
-        <v>5.310250877295521</v>
+        <v>5.902723250990955</v>
       </c>
       <c r="D25">
-        <v>14.02228471423104</v>
+        <v>9.99748545877457</v>
       </c>
       <c r="E25">
-        <v>14.30752735731267</v>
+        <v>9.126779709809037</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>79.24160517044552</v>
+        <v>75.92547226171462</v>
       </c>
       <c r="H25">
-        <v>26.55381196723566</v>
+        <v>21.38922602737827</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.587334465791692</v>
+        <v>5.042728074691317</v>
       </c>
       <c r="K25">
-        <v>15.58559041169683</v>
+        <v>11.28797037708556</v>
       </c>
       <c r="L25">
-        <v>12.84771151602902</v>
+        <v>7.813990675498335</v>
       </c>
       <c r="M25">
         <v>0</v>
